--- a/group-reports/tables/shahriar-3-1-results-test-5.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-test-5.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -707,32 +707,32 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>2482 msec</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>1259.97</t>
+          <t>1259.97 msec</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>1378 usec</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>2966.9k</t>
+          <t>2966.9k usec</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>45068.10</t>
+          <t>45068.10 usec</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -829,32 +829,32 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22 msec</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>2985 msec</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>1257.68</t>
+          <t>1257.68 msec</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1398 usec</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>3559.6k</t>
+          <t>3559.6k usec</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>50624.71</t>
+          <t>50624.71 usec</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>575 usec</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>10279k</t>
+          <t>10279k usec</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>1209703.32</t>
+          <t>1209703.32 usec</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1415 usec</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>11024k</t>
+          <t>11024k usec</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>349783.45</t>
+          <t>349783.45 usec</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1073,32 +1073,32 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2500 msec</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>1276.03</t>
+          <t>1276.03 msec</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1368 usec</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>565907</t>
+          <t>565907 usec</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>7619.81</t>
+          <t>7619.81 usec</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1195,32 +1195,32 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>3743 msec</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>1212.89</t>
+          <t>1212.89 msec</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1421 usec</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>4460.0k</t>
+          <t>4460.0k usec</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>156258.79</t>
+          <t>156258.79 usec</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1317,32 +1317,32 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>2507 msec</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>1266.32</t>
+          <t>1266.32 msec</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1267 usec</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>2499.7k</t>
+          <t>2499.7k usec</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>30571.82</t>
+          <t>30571.82 usec</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>2719 msec</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>1275.16</t>
+          <t>1275.16 msec</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1370 usec</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2111.7k</t>
+          <t>2111.7k usec</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>9532.50</t>
+          <t>9532.50 usec</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>559 usec</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>5710.2k</t>
+          <t>5710.2k usec</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>1236817.47</t>
+          <t>1236817.47 usec</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1326 usec</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>7710.7k</t>
+          <t>7710.7k usec</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>124094.45</t>
+          <t>124094.45 usec</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>3365</t>
+          <t>3365 msec</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t>1277.56</t>
+          <t>1277.56 msec</t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1326 usec</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>2150.2k</t>
+          <t>2150.2k usec</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>3971.32</t>
+          <t>3971.32 usec</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1805,32 +1805,32 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 msec</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3256 msec</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>1270.45</t>
+          <t>1270.45 msec</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>3003 msec</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>20.52</t>
+          <t>20.52 msec</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1927,32 +1927,32 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1271 usec</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>3214.9k</t>
+          <t>3214.9k usec</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t>1175223.88</t>
+          <t>1175223.88 usec</t>
         </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>1445 usec</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>3773.0k</t>
+          <t>3773.0k usec</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>243746.25</t>
+          <t>243746.25 usec</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2049,32 +2049,32 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>2943 msec</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>1270.74</t>
+          <t>1270.74 msec</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2248</t>
+          <t>2248 msec</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>19.71</t>
+          <t>19.71 msec</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298 usec</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>5972.5k</t>
+          <t>5972.5k usec</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>775063.11</t>
+          <t>775063.11 usec</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>9009</t>
+          <t>9009 msec</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>1524.04</t>
+          <t>1524.04 msec</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2293,32 +2293,32 @@
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265 usec</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr">
         <is>
-          <t>5431.8k</t>
+          <t>5431.8k usec</t>
         </is>
       </c>
       <c r="N16" s="1" t="inlineStr">
         <is>
-          <t>684835.57</t>
+          <t>684835.57 usec</t>
         </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>6647</t>
+          <t>6647 msec</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>1723.49</t>
+          <t>1723.49 msec</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2415,32 +2415,32 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1079 usec</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
         <is>
-          <t>2487.5k</t>
+          <t>2487.5k usec</t>
         </is>
       </c>
       <c r="N17" s="1" t="inlineStr">
         <is>
-          <t>1267433.54</t>
+          <t>1267433.54 usec</t>
         </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1264 usec</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>3352.6k</t>
+          <t>3352.6k usec</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>27820.85</t>
+          <t>27820.85 usec</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2537,32 +2537,32 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12 msec</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2479 msec</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>1276.81</t>
+          <t>1276.81 msec</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>1438 usec</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>1010.8k</t>
+          <t>1010.8k usec</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>5828.10</t>
+          <t>5828.10 usec</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2659,32 +2659,32 @@
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>2745 msec</t>
         </is>
       </c>
       <c r="N19" s="1" t="inlineStr">
         <is>
-          <t>1272.97</t>
+          <t>1272.97 msec</t>
         </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1557 usec</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>2135.2k</t>
+          <t>2135.2k usec</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>15084.99</t>
+          <t>15084.99 usec</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23 msec</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr">
         <is>
-          <t>2565</t>
+          <t>2565 msec</t>
         </is>
       </c>
       <c r="N20" s="1" t="inlineStr">
         <is>
-          <t>1271.29</t>
+          <t>1271.29 msec</t>
         </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1696 msec</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>18.75 msec</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2903,32 +2903,32 @@
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>283 usec</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
         <is>
-          <t>5212.2k</t>
+          <t>5212.2k usec</t>
         </is>
       </c>
       <c r="N21" s="1" t="inlineStr">
         <is>
-          <t>687479.44</t>
+          <t>687479.44 usec</t>
         </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>6448</t>
+          <t>6448 msec</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>1742.68</t>
+          <t>1742.68 msec</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3025,32 +3025,32 @@
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2516 msec</t>
         </is>
       </c>
       <c r="N22" s="1" t="inlineStr">
         <is>
-          <t>1275.74</t>
+          <t>1275.74 msec</t>
         </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1290 usec</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>991327</t>
+          <t>991327 usec</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>8301.50</t>
+          <t>8301.50 usec</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3147,32 +3147,32 @@
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12 msec</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2716 msec</t>
         </is>
       </c>
       <c r="N23" s="1" t="inlineStr">
         <is>
-          <t>1273.53</t>
+          <t>1273.53 msec</t>
         </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1409 usec</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2127.7k</t>
+          <t>2127.7k usec</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>13573.38</t>
+          <t>13573.38 usec</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
